--- a/biology/Botanique/Pont_arc-en-ciel/Pont_arc-en-ciel.xlsx
+++ b/biology/Botanique/Pont_arc-en-ciel/Pont_arc-en-ciel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un pont arc-en-ciel, chinois simplifié : 彩虹桥 ; chinois traditionnel : 彩虹橋 ; pinyin : Cǎihóng Qiáo, est un type de pont en bois conçu en Chine sous la dynastie des Song entre 960 et 1279.
 </t>
@@ -511,7 +523,9 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous les Song, avec la réunification de la Chine sous une dynastie commune, la population double, passant de cent à deux cents millions de personnes.
 Les canaux d'irrigation se multipliant pour les rizières et la circulation des biens, des personnes et des armées augmentant, il devient alors nécessaire de construire des ponts bon marché pouvant être construits rapidement, solides pour résister au temps et aux passages et surtout pouvant enjamber de grandes sections de canaux et rivières sans piles dans le cours d'eau pour ne pas craindre les inondations et permettre la circulation fluviale.
@@ -547,7 +561,9 @@
           <t>Reconstitution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le secret de la technique de construction des ponts arc-en-ciel est longtemps resté un mystère car il n'en reste plus depuis longtemps, la technique de construction s'est perdue et ils ne sont représentés que sur une seule peinture vieille de 900 ans, Le Jour de Qingming au bord de la rivière, montrant un pont arc-en-ciel dans Kaifeng, la première capitale des Song.
 Avec l'aide du professeur Tang Huan Cheng, spécialiste des anciens ponts de Chine, une équipe de Nova, une série de documentaires scientifiques de la Public Broadcasting Service (service public de télévision américain), s'est lancé pour défi de reconstruire un pont arc-en-ciel au-dessus d'un canal dans la ville de Jinze, non loin de la ville Song de Suzhou.
